--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a1-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H2">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I2">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J2">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>14727.52850889615</v>
+        <v>14663.1432052692</v>
       </c>
       <c r="R2">
-        <v>132547.7565800654</v>
+        <v>131968.2888474228</v>
       </c>
       <c r="S2">
-        <v>0.006238303121080188</v>
+        <v>0.006884072367198808</v>
       </c>
       <c r="T2">
-        <v>0.006238303121080188</v>
+        <v>0.006884072367198808</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H3">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I3">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J3">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>15523.36060701553</v>
+        <v>15865.26364148941</v>
       </c>
       <c r="R3">
-        <v>139710.2454631398</v>
+        <v>142787.3727734047</v>
       </c>
       <c r="S3">
-        <v>0.006575402577961568</v>
+        <v>0.00744844550065185</v>
       </c>
       <c r="T3">
-        <v>0.006575402577961568</v>
+        <v>0.00744844550065185</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H4">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I4">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J4">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>10029.4741113823</v>
+        <v>6839.307148619765</v>
       </c>
       <c r="R4">
-        <v>90265.26700244073</v>
+        <v>61553.76433757788</v>
       </c>
       <c r="S4">
-        <v>0.004248295945516974</v>
+        <v>0.003210927199816173</v>
       </c>
       <c r="T4">
-        <v>0.004248295945516975</v>
+        <v>0.003210927199816173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H5">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I5">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J5">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>5373.702708211578</v>
+        <v>5370.719338812156</v>
       </c>
       <c r="R5">
-        <v>48363.32437390421</v>
+        <v>48336.4740493094</v>
       </c>
       <c r="S5">
-        <v>0.002276199048342968</v>
+        <v>0.002521452602264088</v>
       </c>
       <c r="T5">
-        <v>0.002276199048342968</v>
+        <v>0.002521452602264088</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>89.95998966666667</v>
+        <v>91.94136433333334</v>
       </c>
       <c r="H6">
-        <v>269.879969</v>
+        <v>275.824093</v>
       </c>
       <c r="I6">
-        <v>0.02265176537473209</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="J6">
-        <v>0.0226517653747321</v>
+        <v>0.02307547609860541</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>7822.73919214085</v>
+        <v>6412.562256127363</v>
       </c>
       <c r="R6">
-        <v>70404.65272926765</v>
+        <v>57713.06030514627</v>
       </c>
       <c r="S6">
-        <v>0.003313564681830397</v>
+        <v>0.003010578428674492</v>
       </c>
       <c r="T6">
-        <v>0.003313564681830397</v>
+        <v>0.003010578428674493</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I7">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J7">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>631530.1746655093</v>
+        <v>615219.033208459</v>
       </c>
       <c r="R7">
-        <v>5683771.571989584</v>
+        <v>5536971.298876131</v>
       </c>
       <c r="S7">
-        <v>0.267504263006003</v>
+        <v>0.2888338664498069</v>
       </c>
       <c r="T7">
-        <v>0.267504263006003</v>
+        <v>0.2888338664498069</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I8">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J8">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>665656.1981613158</v>
@@ -948,10 +948,10 @@
         <v>5990905.783451842</v>
       </c>
       <c r="S8">
-        <v>0.2819594024922617</v>
+        <v>0.3125131750858324</v>
       </c>
       <c r="T8">
-        <v>0.2819594024922617</v>
+        <v>0.3125131750858324</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I9">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J9">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>430073.2151724217</v>
+        <v>286955.6597031342</v>
       </c>
       <c r="R9">
-        <v>3870658.936551795</v>
+        <v>2582600.937328208</v>
       </c>
       <c r="S9">
-        <v>0.1821708970980765</v>
+        <v>0.1347203324634913</v>
       </c>
       <c r="T9">
-        <v>0.1821708970980766</v>
+        <v>0.1347203324634913</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I10">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J10">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>230429.3899595878</v>
+        <v>225338.367974926</v>
       </c>
       <c r="R10">
-        <v>2073864.509636291</v>
+        <v>2028045.311774335</v>
       </c>
       <c r="S10">
-        <v>0.097605540651657</v>
+        <v>0.1057921627395977</v>
       </c>
       <c r="T10">
-        <v>0.097605540651657</v>
+        <v>0.1057921627395977</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>11572.705078</v>
       </c>
       <c r="I11">
-        <v>0.9713288509301208</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="J11">
-        <v>0.971328850930121</v>
+        <v>0.9681738695089209</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>335446.3612405336</v>
+        <v>269050.7960248283</v>
       </c>
       <c r="R11">
-        <v>3019017.251164802</v>
+        <v>2421457.164223454</v>
       </c>
       <c r="S11">
-        <v>0.1420887476821227</v>
+        <v>0.1263143327701926</v>
       </c>
       <c r="T11">
-        <v>0.1420887476821227</v>
+        <v>0.1263143327701927</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H12">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I12">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J12">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>21.97364095408711</v>
+        <v>293.5664220710116</v>
       </c>
       <c r="R12">
-        <v>197.762768586784</v>
+        <v>2642.097798639104</v>
       </c>
       <c r="S12">
-        <v>9.307619595682675E-06</v>
+        <v>0.0001378239621495513</v>
       </c>
       <c r="T12">
-        <v>9.307619595682675E-06</v>
+        <v>0.0001378239621495513</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H13">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I13">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J13">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>23.161031545336</v>
+        <v>317.633717221808</v>
       </c>
       <c r="R13">
-        <v>208.449283908024</v>
+        <v>2858.703454996272</v>
       </c>
       <c r="S13">
-        <v>9.810575840300013E-06</v>
+        <v>0.0001491231085318411</v>
       </c>
       <c r="T13">
-        <v>9.810575840300013E-06</v>
+        <v>0.0001491231085318411</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H14">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I14">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J14">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>14.96409006770578</v>
+        <v>136.9277310436071</v>
       </c>
       <c r="R14">
-        <v>134.676810609352</v>
+        <v>1232.349579392464</v>
       </c>
       <c r="S14">
-        <v>6.338506132723198E-06</v>
+        <v>6.428501695610496E-05</v>
       </c>
       <c r="T14">
-        <v>6.338506132723199E-06</v>
+        <v>6.428501695610498E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H15">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I15">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J15">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>8.017625892417778</v>
+        <v>107.5255719848729</v>
       </c>
       <c r="R15">
-        <v>72.15863303175999</v>
+        <v>967.730147863856</v>
       </c>
       <c r="S15">
-        <v>3.396115009936039E-06</v>
+        <v>5.048125142788715E-05</v>
       </c>
       <c r="T15">
-        <v>3.396115009936039E-06</v>
+        <v>5.048125142788716E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1342213333333333</v>
+        <v>1.840730666666667</v>
       </c>
       <c r="H16">
-        <v>0.402664</v>
+        <v>5.522192</v>
       </c>
       <c r="I16">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="J16">
-        <v>3.379669297668818E-05</v>
+        <v>0.000461987232956876</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>11.67161633275644</v>
+        <v>128.3839986751574</v>
       </c>
       <c r="R16">
-        <v>105.044546994808</v>
+        <v>1155.455988076416</v>
       </c>
       <c r="S16">
-        <v>4.943876398046255E-06</v>
+        <v>6.027389389149139E-05</v>
       </c>
       <c r="T16">
-        <v>4.943876398046255E-06</v>
+        <v>6.027389389149141E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H17">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I17">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J17">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>3850.129739468366</v>
+        <v>4963.005014384691</v>
       </c>
       <c r="R17">
-        <v>34651.16765521529</v>
+        <v>44667.04512946221</v>
       </c>
       <c r="S17">
-        <v>0.001630842293449368</v>
+        <v>0.002330038328038515</v>
       </c>
       <c r="T17">
-        <v>0.001630842293449368</v>
+        <v>0.002330038328038515</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H18">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I18">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J18">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>4058.179367533392</v>
+        <v>5369.884335505366</v>
       </c>
       <c r="R18">
-        <v>36523.61430780053</v>
+        <v>48328.9590195483</v>
       </c>
       <c r="S18">
-        <v>0.001718968189339751</v>
+        <v>0.00252106058377867</v>
       </c>
       <c r="T18">
-        <v>0.001718968189339752</v>
+        <v>0.00252106058377867</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H19">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I19">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J19">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>2621.945462481083</v>
+        <v>2314.886733242798</v>
       </c>
       <c r="R19">
-        <v>23597.50916232975</v>
+        <v>20833.98059918518</v>
       </c>
       <c r="S19">
-        <v>0.001110606613459798</v>
+        <v>0.001086796164398456</v>
       </c>
       <c r="T19">
-        <v>0.001110606613459798</v>
+        <v>0.001086796164398457</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H20">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I20">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J20">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>1404.814975944514</v>
+        <v>1817.816728394163</v>
       </c>
       <c r="R20">
-        <v>12643.33478350063</v>
+        <v>16360.35055554746</v>
       </c>
       <c r="S20">
-        <v>0.0005950531104849785</v>
+        <v>0.0008534310640895257</v>
       </c>
       <c r="T20">
-        <v>0.0005950531104849786</v>
+        <v>0.0008534310640895258</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>23.51770233333333</v>
+        <v>31.11921133333334</v>
       </c>
       <c r="H21">
-        <v>70.553107</v>
+        <v>93.357634</v>
       </c>
       <c r="I21">
-        <v>0.005921715613589566</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="J21">
-        <v>0.005921715613589568</v>
+        <v>0.007810310653280575</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>2045.051944022592</v>
+        <v>2170.447235404315</v>
       </c>
       <c r="R21">
-        <v>18405.46749620333</v>
+        <v>19534.02511863883</v>
       </c>
       <c r="S21">
-        <v>0.0008662454068556712</v>
+        <v>0.001018984512975407</v>
       </c>
       <c r="T21">
-        <v>0.0008662454068556712</v>
+        <v>0.001018984512975407</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H22">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I22">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J22">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>41.52734591163866</v>
+        <v>303.9681575427414</v>
       </c>
       <c r="R22">
-        <v>373.7461132047479</v>
+        <v>2735.713417884672</v>
       </c>
       <c r="S22">
-        <v>1.759019997511918E-05</v>
+        <v>0.0001427073830320613</v>
       </c>
       <c r="T22">
-        <v>1.759019997511918E-05</v>
+        <v>0.0001427073830320613</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H23">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I23">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J23">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>43.77136090751699</v>
+        <v>328.888212474144</v>
       </c>
       <c r="R23">
-        <v>393.942248167653</v>
+        <v>2959.993912267296</v>
       </c>
       <c r="S23">
-        <v>1.854072237567556E-05</v>
+        <v>0.0001544068842331884</v>
       </c>
       <c r="T23">
-        <v>1.854072237567556E-05</v>
+        <v>0.0001544068842331884</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H24">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I24">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J24">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>28.28019925295766</v>
+        <v>141.7793963907947</v>
       </c>
       <c r="R24">
-        <v>254.521793276619</v>
+        <v>1276.014567517152</v>
       </c>
       <c r="S24">
-        <v>1.197895866627783E-05</v>
+        <v>6.656278338612031E-05</v>
       </c>
       <c r="T24">
-        <v>1.197895866627783E-05</v>
+        <v>6.656278338612031E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H25">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I25">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J25">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>15.15227833749666</v>
+        <v>111.3354510178453</v>
       </c>
       <c r="R25">
-        <v>136.37050503747</v>
+        <v>1002.019059160608</v>
       </c>
       <c r="S25">
-        <v>6.418219132095634E-06</v>
+        <v>5.226991860559233E-05</v>
       </c>
       <c r="T25">
-        <v>6.418219132095634E-06</v>
+        <v>5.226991860559233E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.253661</v>
+        <v>1.905952</v>
       </c>
       <c r="H26">
-        <v>0.760983</v>
+        <v>5.717856</v>
       </c>
       <c r="I26">
-        <v>6.387138858074995E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="J26">
-        <v>6.387138858074996E-05</v>
+        <v>0.0004783565062362683</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>22.05784875665566</v>
+        <v>132.932939877632</v>
       </c>
       <c r="R26">
-        <v>198.520638809901</v>
+        <v>1196.396458898688</v>
       </c>
       <c r="S26">
-        <v>9.343288431581748E-06</v>
+        <v>6.240953697930594E-05</v>
       </c>
       <c r="T26">
-        <v>9.343288431581748E-06</v>
+        <v>6.240953697930596E-05</v>
       </c>
     </row>
   </sheetData>
